--- a/CashFlow/ROST_cashflow.xlsx
+++ b/CashFlow/ROST_cashflow.xlsx
@@ -618,19 +618,19 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>6014000000.0</v>
+        <v>323357000.0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>6337000000.0</v>
+        <v>538406000.0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4374073000.0</v>
+        <v>717886000.0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3233977000.0</v>
+        <v>56510000.0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1413646000.0</v>
+        <v>-81897000.0</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>-189716000.0</v>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>938837000.0</v>
+        <v>6399000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>935079000.0</v>
+        <v>5438000000.0</v>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
